--- a/applications/Unity/Assets/Devwinsoft/Devarc/ExcelData/TestSchema.xlsx
+++ b/applications/Unity/Assets/Devwinsoft/Devarc/ExcelData/TestSchema.xlsx
@@ -24,235 +24,236 @@
     <t>unit_type</t>
   </si>
   <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>unit_uid</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>lstr</t>
+  </si>
+  <si>
+    <t>DataAbility</t>
+  </si>
+  <si>
+    <t>cstr</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>class_list</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>HUMAN_FEMALE</t>
+  </si>
+  <si>
+    <t>인간(여)</t>
+  </si>
+  <si>
+    <t>["ELF_MALE","ELF_FEMALE"]</t>
+  </si>
+  <si>
+    <t>[{"str":"11"}]</t>
+  </si>
+  <si>
+    <t>["1","2","3"]</t>
+  </si>
+  <si>
+    <t>HUMAN_MALE</t>
+  </si>
+  <si>
+    <t>인간(남)</t>
+  </si>
+  <si>
+    <t>ELF_FEMALE</t>
+  </si>
+  <si>
+    <t>엘프(여)</t>
+  </si>
+  <si>
+    <t>ELF_MALE</t>
+  </si>
+  <si>
+    <t>엘프(남)</t>
+  </si>
+  <si>
+    <t>DARKELF_FEMALE</t>
+  </si>
+  <si>
+    <t>다크엘프(여)</t>
+  </si>
+  <si>
+    <t>DARKELF_MALE</t>
+  </si>
+  <si>
+    <t>다크엘프(남)</t>
+  </si>
+  <si>
+    <t>DWARF_FEMALE</t>
+  </si>
+  <si>
+    <t>드와프(여)</t>
+  </si>
+  <si>
+    <t>DWARF_MALE</t>
+  </si>
+  <si>
+    <t>드와프(남)</t>
+  </si>
+  <si>
+    <t>GOBLIN</t>
+  </si>
+  <si>
+    <t>고블린</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>임프</t>
+  </si>
+  <si>
+    <t>MUMMY</t>
+  </si>
+  <si>
+    <t>미라</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>오크</t>
+  </si>
+  <si>
+    <t>TROLL</t>
+  </si>
+  <si>
+    <t>트롤</t>
+  </si>
+  <si>
+    <t>UNDEAD</t>
+  </si>
+  <si>
+    <t>언데드</t>
+  </si>
+  <si>
+    <t>DRAGON_BLACK</t>
+  </si>
+  <si>
+    <t>블랙 드래곤</t>
+  </si>
+  <si>
+    <t>DRAGON_RED</t>
+  </si>
+  <si>
+    <t>레드 드래곤</t>
+  </si>
+  <si>
+    <t>DRAGON_UNDEAD</t>
+  </si>
+  <si>
+    <t>본 드래곤</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>dex</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>hid</t>
+  </si>
+  <si>
+    <t>VECTOR3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>DIRECTION</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>FORWARD</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>stats</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>nodes</t>
-  </si>
-  <si>
-    <t>unit_uid</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>lstr</t>
-  </si>
-  <si>
-    <t>DataAbility</t>
-  </si>
-  <si>
-    <t>cstr</t>
-  </si>
-  <si>
-    <t>uint</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>class_list</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>MAP</t>
-  </si>
-  <si>
-    <t>HUMAN_FEMALE</t>
-  </si>
-  <si>
-    <t>인간(여)</t>
-  </si>
-  <si>
-    <t>["ELF_MALE","ELF_FEMALE"]</t>
-  </si>
-  <si>
-    <t>[{"str":"11"}]</t>
-  </si>
-  <si>
-    <t>["1","2","3"]</t>
-  </si>
-  <si>
-    <t>HUMAN_MALE</t>
-  </si>
-  <si>
-    <t>인간(남)</t>
-  </si>
-  <si>
-    <t>ELF_FEMALE</t>
-  </si>
-  <si>
-    <t>엘프(여)</t>
-  </si>
-  <si>
-    <t>ELF_MALE</t>
-  </si>
-  <si>
-    <t>엘프(남)</t>
-  </si>
-  <si>
-    <t>DARKELF_FEMALE</t>
-  </si>
-  <si>
-    <t>다크엘프(여)</t>
-  </si>
-  <si>
-    <t>DARKELF_MALE</t>
-  </si>
-  <si>
-    <t>다크엘프(남)</t>
-  </si>
-  <si>
-    <t>DWARF_FEMALE</t>
-  </si>
-  <si>
-    <t>드와프(여)</t>
-  </si>
-  <si>
-    <t>DWARF_MALE</t>
-  </si>
-  <si>
-    <t>드와프(남)</t>
-  </si>
-  <si>
-    <t>GOBLIN</t>
-  </si>
-  <si>
-    <t>고블린</t>
-  </si>
-  <si>
-    <t>IMP</t>
-  </si>
-  <si>
-    <t>임프</t>
-  </si>
-  <si>
-    <t>MUMMY</t>
-  </si>
-  <si>
-    <t>미라</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>오크</t>
-  </si>
-  <si>
-    <t>TROLL</t>
-  </si>
-  <si>
-    <t>트롤</t>
-  </si>
-  <si>
-    <t>UNDEAD</t>
-  </si>
-  <si>
-    <t>언데드</t>
-  </si>
-  <si>
-    <t>DRAGON_BLACK</t>
-  </si>
-  <si>
-    <t>블랙 드래곤</t>
-  </si>
-  <si>
-    <t>DRAGON_RED</t>
-  </si>
-  <si>
-    <t>레드 드래곤</t>
-  </si>
-  <si>
-    <t>DRAGON_UNDEAD</t>
-  </si>
-  <si>
-    <t>본 드래곤</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>dex</t>
-  </si>
-  <si>
-    <t>vit</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>hid</t>
-  </si>
-  <si>
-    <t>VECTOR3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>DIRECTION</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>BACK</t>
-  </si>
-  <si>
-    <t>FORWARD</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>BR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1210,81 +1211,81 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1292,10 +1293,10 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1303,10 +1304,10 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1314,119 +1315,120 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1442,24 +1444,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1478,23 +1480,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1513,24 +1515,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1555,28 +1557,28 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1584,7 +1586,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1592,7 +1594,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1600,7 +1602,7 @@
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1608,7 +1610,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1616,7 +1618,7 @@
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1624,7 +1626,7 @@
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1632,7 +1634,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1640,7 +1642,7 @@
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1648,7 +1650,7 @@
     </row>
     <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1656,7 +1658,7 @@
     </row>
     <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1664,7 +1666,7 @@
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -1672,7 +1674,7 @@
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1680,7 +1682,7 @@
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -1688,7 +1690,7 @@
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -1696,7 +1698,7 @@
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -1704,7 +1706,7 @@
     </row>
     <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -1712,7 +1714,7 @@
     </row>
     <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -1738,28 +1740,28 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1767,7 +1769,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1775,7 +1777,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1783,7 +1785,7 @@
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1791,7 +1793,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1799,7 +1801,7 @@
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1807,7 +1809,7 @@
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1815,7 +1817,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1823,7 +1825,7 @@
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>8</v>

--- a/applications/Unity/Assets/Devwinsoft/Devarc/ExcelData/TestSchema.xlsx
+++ b/applications/Unity/Assets/Devwinsoft/Devarc/ExcelData/TestSchema.xlsx
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1320,6 +1320,9 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1328,6 +1331,9 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1336,6 +1342,9 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1344,6 +1353,9 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1352,6 +1364,9 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1360,6 +1375,9 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1368,6 +1386,9 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1376,6 +1397,9 @@
       <c r="B15" t="s">
         <v>39</v>
       </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1384,24 +1408,33 @@
       <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1409,7 +1442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1417,7 +1450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
